--- a/docs/numCardsInDB.xlsx
+++ b/docs/numCardsInDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Develop\AlgTest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621B092-2BB0-4719-8F05-4CF605808C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A547D684-9C03-40E4-B1CB-F466F88C6395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFA18ABA-B2C6-4563-8397-6B5B47975C99}"/>
   </bookViews>
@@ -175,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -201,10 +201,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>List1!$B$2:$B$15</c:f>
+              <c:f>List1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -246,16 +246,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$C$2:$C$15</c:f>
+              <c:f>List1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -297,6 +300,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,13 +346,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>List1!$B$2:$B$15</c15:sqref>
+                          <c15:sqref>List1!$B$2:$B$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>2007</c:v>
                       </c:pt>
@@ -388,6 +394,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2021</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -397,13 +406,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>List1!$B$2:$B$15</c15:sqref>
+                          <c15:sqref>List1!$B$2:$B$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>2007</c:v>
                       </c:pt>
@@ -445,6 +454,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2021</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -500,7 +512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="353809392"/>
@@ -561,7 +573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="353808752"/>
@@ -609,7 +621,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1501,20 +1513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8DF6D1-46B8-42B8-BB40-2D33BB2FF30D}">
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2007</v>
       </c>
@@ -1533,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2008</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2009</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2010</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2011</v>
       </c>
@@ -1574,7 +1586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2012</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2013</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2014</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2015</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2016</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2017</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>2018</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2019</v>
       </c>
@@ -1638,12 +1650,20 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2020</v>
       </c>
       <c r="C15">
         <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
